--- a/talleres/taller05/Libro1.xlsx
+++ b/talleres/taller05/Libro1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tatiana Vélez\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41DC2898-A9FE-42E6-B3E3-98ADA1BFCB7F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20CC59F5-A181-498D-A9D4-FDC09D1D1D85}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7F2BACFC-DF3B-4AB6-98BD-93F66F87B6E5}"/>
   </bookViews>
@@ -30,10 +30,29 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>Este algoritmo permite calcular pero al computador le cuesta hacer los cálculos de grandes volumenes de datos</t>
+  </si>
+  <si>
+    <t>La recursión permite la ejecución del programa en un tiempo más minimo que en el llamdo por ciclos</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -61,8 +80,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2322,145 +2342,152 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4818B006-6812-4B9F-B33B-A9A400B53B69}">
-  <dimension ref="B1:B45"/>
+  <dimension ref="B1:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>136</v>
       </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="M9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>160</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>181</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>196</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>171</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>207</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>197</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>128</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>216</v>
       </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>125</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>231</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>140</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>32</v>
       </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="M28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>136</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>215</v>
       </c>
@@ -2532,6 +2559,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>